--- a/eval.xlsx
+++ b/eval.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22520"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_CEF687144ACED50B3BDCCD5C7D472FC02D73F06A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DA3254D-C68B-44FE-B10F-4F5023A5383E}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_CEF687144ACED50B3BDCCD5C7D472FC02D73F06A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD9BA0D1-F61D-463C-9648-C0FFCBD68ACF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Owner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Us</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Authentification</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>persister données</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t>Début de la tache</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t xml:space="preserve"> avec un temps déjà passé de :</t>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1433,19 +1433,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -1453,74 +1453,134 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1531,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74834B51-99DA-46C6-ABEF-B1BFB7C40264}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1544,28 +1604,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1574,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1590,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1612,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1634,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1656,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1675,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1688,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1701,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1716,11 +1776,11 @@
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1733,14 +1793,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1749,10 +1809,10 @@
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1762,10 +1822,10 @@
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1775,10 +1835,10 @@
     <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1788,10 +1848,10 @@
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1808,12 +1868,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C057F270538BED4DB9A9905E7D30C60E" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c2aa164ff720b55567a1d9e6db1622e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc07f39e-a865-477b-899d-7daddeea0aa4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf3705084705538677895878d17ee3cc" ns2:_="">
     <xsd:import namespace="bc07f39e-a865-477b-899d-7daddeea0aa4"/>
@@ -1971,6 +2025,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1981,11 +2041,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFBEC5D-752C-41CA-A2A6-22FE0D268DEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7956CAF3-56C1-4A68-9C92-1A26369ED3A2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7956CAF3-56C1-4A68-9C92-1A26369ED3A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFBEC5D-752C-41CA-A2A6-22FE0D268DEF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
